--- a/Doc/接口规范/url.xlsx
+++ b/Doc/接口规范/url.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JimLiu/Desktop/ToSIMPLE/Doc/接口规范/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8670"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25380" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="105">
   <si>
     <t>url</t>
   </si>
@@ -332,22 +345,219 @@
   <si>
     <t>删除被举报信息</t>
   </si>
+  <si>
+    <t>associateQuestionnaires?questionnaireId1={id1}&amp;questionnaireId2={id2}&amp;message={message}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联两份问卷</t>
+    <rPh sb="0" eb="1">
+      <t>guan lian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>liang fen</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen juan</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>breakAssociation?questionnaireId1={id1}&amp;questionnaireId2={id2}</t>
+  </si>
+  <si>
+    <t>删除关联</t>
+    <rPh sb="0" eb="1">
+      <t>shan chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan lian</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAllAssociation?questionnaireId=str</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid + questionnaires</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找同本问卷关联的问卷</t>
+    <rPh sb="0" eb="1">
+      <t>xun zhao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ben</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen juan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guan lian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wen juan</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOneAssociation?questionnaireId=str</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid+questionnaire</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找同本问卷关联的一份问卷</t>
+    <rPh sb="0" eb="1">
+      <t>xun zhao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ben</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen juan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guan lian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi feng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wen juan</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOneAssociationInfo?questionnaireId=str</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid+questionnaireAssociateion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找同本问卷关联的一份问卷的id和message</t>
+    <rPh sb="0" eb="1">
+      <t>xun zhao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ben</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen juan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>guan lian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>de</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yi feng</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wen juan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>he</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendCheckToken?email=str</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>向邮箱发验证码</t>
+    <rPh sb="0" eb="1">
+      <t>xiang</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>you xiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan zheng ma</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ma</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgotPassword?passwordNewSECURE=str&amp;checkToken=str&amp;email=str</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用邮箱验证码重制密码</t>
+    <rPh sb="0" eb="1">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>you xiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yan zheng ma</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ma</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chong zhi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>mi ma</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -371,351 +581,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -723,251 +610,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -981,7 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -991,58 +636,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1051,10 +654,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="E0E0E0"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="333333"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1303,25 +906,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:F30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="49.5" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="30.625" customWidth="1"/>
-    <col min="4" max="4" width="42.625" customWidth="1"/>
-    <col min="5" max="5" width="32.75" customWidth="1"/>
-    <col min="6" max="15" width="50.625" customWidth="1"/>
+    <col min="1" max="1" width="96.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="15" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="50" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="50" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1361,7 +963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="50" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1381,7 +983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="50" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1401,7 +1003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="50" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1421,7 +1023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="50" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1441,7 +1043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" ht="50" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1461,7 +1063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="50" customHeight="1" spans="1:6">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1481,7 +1083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="50" customHeight="1" spans="1:6">
+    <row r="9" spans="1:6" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1501,7 +1103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="50" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1521,7 +1123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" ht="50" customHeight="1" spans="1:6">
+    <row r="11" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1541,7 +1143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="50" customHeight="1" spans="1:6">
+    <row r="12" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1561,7 +1163,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" ht="50" customHeight="1" spans="1:6">
+    <row r="13" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1581,7 +1183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="50" customHeight="1" spans="1:6">
+    <row r="14" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1601,7 +1203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="50" customHeight="1" spans="1:6">
+    <row r="15" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -1621,7 +1223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="50" customHeight="1" spans="1:6">
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>55</v>
       </c>
@@ -1641,7 +1243,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="50" customHeight="1" spans="1:2">
+    <row r="17" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -1649,7 +1251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="50" customHeight="1" spans="1:6">
+    <row r="18" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -1669,7 +1271,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" customFormat="1" ht="50" customHeight="1" spans="1:6">
+    <row r="19" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1689,7 +1291,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="50" customHeight="1" spans="1:6">
+    <row r="20" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -1707,7 +1309,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" customFormat="1" ht="50" customHeight="1" spans="1:6">
+    <row r="21" spans="1:13" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>70</v>
       </c>
@@ -1725,7 +1327,7 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" s="3" customFormat="1" ht="50" customHeight="1" spans="1:6">
+    <row r="22" spans="1:13" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>74</v>
       </c>
@@ -1743,7 +1345,7 @@
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" s="3" customFormat="1" ht="50" customHeight="1" spans="1:6">
+    <row r="23" spans="1:13" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>77</v>
       </c>
@@ -1761,7 +1363,7 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" s="3" customFormat="1" ht="50" customHeight="1" spans="1:6">
+    <row r="24" spans="1:13" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>79</v>
       </c>
@@ -1779,43 +1381,157 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" s="3" customFormat="1" ht="50" customHeight="1" spans="1:6">
+    <row r="25" spans="1:13" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" s="3" customFormat="1" ht="50" customHeight="1" spans="3:6">
-      <c r="C26" s="4"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" s="3" customFormat="1" ht="50" customHeight="1" spans="3:6">
-      <c r="C27" s="4"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" s="3" customFormat="1" ht="50" customHeight="1" spans="3:6">
-      <c r="C28" s="4"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" s="3" customFormat="1" ht="50" customHeight="1" spans="3:6">
-      <c r="C29" s="4"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" s="3" customFormat="1" ht="50" customHeight="1" spans="3:6">
-      <c r="C30" s="4"/>
-      <c r="F30" s="5"/>
+    </row>
+    <row r="26" spans="1:13" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>